--- a/المستخدمين.xlsx
+++ b/المستخدمين.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\تطبيقي\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F68A7599-49A7-45F5-AFCF-F106681C4C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022AC262-49E9-4CF6-9109-293B1841BC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8C11EB78-F252-4332-9410-1458DD7567FE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>training@gahar.gov.eg</t>
   </si>
@@ -72,6 +72,30 @@
   </si>
   <si>
     <t>الإدارة المسؤولة</t>
+  </si>
+  <si>
+    <t>acc@gahar.gov.eg</t>
+  </si>
+  <si>
+    <t>Ac1234</t>
+  </si>
+  <si>
+    <t>اعتماد وتسجيل المنشآت</t>
+  </si>
+  <si>
+    <t>tec@gahar.gov.eg</t>
+  </si>
+  <si>
+    <t>Tec1234</t>
+  </si>
+  <si>
+    <t>الدعم الفني للمنشآت الصحية</t>
+  </si>
+  <si>
+    <t>Admin_8090988</t>
+  </si>
+  <si>
+    <t>abdullahbido@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -454,17 +478,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B05737-2DBB-47FB-ADE8-231989853B7E}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.77734375" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -512,13 +536,43 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{3802534C-3D19-462A-8158-A3A5413FCEFD}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{4F5B7D10-F96D-4BDC-A859-4272FA580C0E}"/>
     <hyperlink ref="A4" r:id="rId3" xr:uid="{9287C078-3351-4352-A30D-7825286A7231}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{F6C0A7DF-74A7-45A7-809D-72A0083AFA29}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{E37180EF-F6F9-440B-82B5-A470D304F69D}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{EB0EAFB2-4D1E-49EB-8B2C-0C27390C368F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/المستخدمين.xlsx
+++ b/المستخدمين.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\تطبيقي\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAA3ED2-2393-4E14-B447-AD5C4678ACDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B87CE44-A1D8-4370-B03A-A1EF088E5C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8C11EB78-F252-4332-9410-1458DD7567FE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>training@gahar.gov.eg</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>admin@gahar.gov.eg</t>
+  </si>
+  <si>
+    <t>Treg2025</t>
+  </si>
+  <si>
+    <t>treg@gahar.gov.eg</t>
+  </si>
+  <si>
+    <t>الرقابة الفنية والإكلينيكية</t>
   </si>
 </sst>
 </file>
@@ -481,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B05737-2DBB-47FB-ADE8-231989853B7E}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,6 +585,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{3802534C-3D19-462A-8158-A3A5413FCEFD}"/>
@@ -585,6 +605,7 @@
     <hyperlink ref="A6" r:id="rId5" xr:uid="{E37180EF-F6F9-440B-82B5-A470D304F69D}"/>
     <hyperlink ref="A7" r:id="rId6" xr:uid="{EB0EAFB2-4D1E-49EB-8B2C-0C27390C368F}"/>
     <hyperlink ref="A8" r:id="rId7" xr:uid="{F7A1EDBF-8DDD-48D8-8793-B30D50DD50BD}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{73D30EF0-BC48-4FC8-ABCC-7D2A19B88EFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/المستخدمين.xlsx
+++ b/المستخدمين.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\تطبيقي\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B87CE44-A1D8-4370-B03A-A1EF088E5C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE586E1-65F0-418F-B51A-DC6E0078B992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8C11EB78-F252-4332-9410-1458DD7567FE}"/>
   </bookViews>

--- a/المستخدمين.xlsx
+++ b/المستخدمين.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\تطبيقي\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE586E1-65F0-418F-B51A-DC6E0078B992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F85AB27-D80D-4BB9-B1CE-D7FAEF29C812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8C11EB78-F252-4332-9410-1458DD7567FE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>training@gahar.gov.eg</t>
   </si>
@@ -108,6 +108,21 @@
   </si>
   <si>
     <t>الرقابة الفنية والإكلينيكية</t>
+  </si>
+  <si>
+    <t>ceo@GAHAR2026</t>
+  </si>
+  <si>
+    <t>ceo@gahar.gov.eg</t>
+  </si>
+  <si>
+    <t>المدير التنفيذي للهيئة</t>
+  </si>
+  <si>
+    <t>رئيس الهيئة</t>
+  </si>
+  <si>
+    <t>ahmedtaha@gahar.gov.eg</t>
   </si>
 </sst>
 </file>
@@ -490,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B05737-2DBB-47FB-ADE8-231989853B7E}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,6 +611,25 @@
         <v>23</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{3802534C-3D19-462A-8158-A3A5413FCEFD}"/>
@@ -606,6 +640,9 @@
     <hyperlink ref="A7" r:id="rId6" xr:uid="{EB0EAFB2-4D1E-49EB-8B2C-0C27390C368F}"/>
     <hyperlink ref="A8" r:id="rId7" xr:uid="{F7A1EDBF-8DDD-48D8-8793-B30D50DD50BD}"/>
     <hyperlink ref="A9" r:id="rId8" xr:uid="{73D30EF0-BC48-4FC8-ABCC-7D2A19B88EFD}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{7185E021-DC32-4262-AAD1-5392FD217ED9}"/>
+    <hyperlink ref="A10" r:id="rId10" xr:uid="{1A81DEA8-180B-4D0D-BA6A-211263D7D853}"/>
+    <hyperlink ref="A11" r:id="rId11" xr:uid="{770DEFFB-A763-4F1B-AE55-A5D62D5DA2B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/المستخدمين.xlsx
+++ b/المستخدمين.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\تطبيقي\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F85AB27-D80D-4BB9-B1CE-D7FAEF29C812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FC7123-7194-4466-BABF-090909F066FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8C11EB78-F252-4332-9410-1458DD7567FE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>training@gahar.gov.eg</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>ahmedtaha@gahar.gov.eg</t>
+  </si>
+  <si>
+    <t>Adminreg2026</t>
+  </si>
+  <si>
+    <t>الرقابة الإدارية</t>
+  </si>
+  <si>
+    <t>adminreg@gahar.gov.eg</t>
   </si>
 </sst>
 </file>
@@ -505,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B05737-2DBB-47FB-ADE8-231989853B7E}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,6 +637,17 @@
       </c>
       <c r="C11" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -643,6 +663,7 @@
     <hyperlink ref="B10" r:id="rId9" xr:uid="{7185E021-DC32-4262-AAD1-5392FD217ED9}"/>
     <hyperlink ref="A10" r:id="rId10" xr:uid="{1A81DEA8-180B-4D0D-BA6A-211263D7D853}"/>
     <hyperlink ref="A11" r:id="rId11" xr:uid="{770DEFFB-A763-4F1B-AE55-A5D62D5DA2B4}"/>
+    <hyperlink ref="A12" r:id="rId12" xr:uid="{6B9C862C-41C9-4C4B-BB80-042916EB9F49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/المستخدمين.xlsx
+++ b/المستخدمين.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\تطبيقي\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FC7123-7194-4466-BABF-090909F066FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4C3DAF-0C53-4AD0-BE9A-AC44A9ACFE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8C11EB78-F252-4332-9410-1458DD7567FE}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/المستخدمين.xlsx
+++ b/المستخدمين.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\تطبيقي\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4C3DAF-0C53-4AD0-BE9A-AC44A9ACFE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93033DCA-199D-461C-A5EE-1B1ED80BC22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8C11EB78-F252-4332-9410-1458DD7567FE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>training@gahar.gov.eg</t>
   </si>
@@ -122,9 +122,6 @@
     <t>رئيس الهيئة</t>
   </si>
   <si>
-    <t>ahmedtaha@gahar.gov.eg</t>
-  </si>
-  <si>
     <t>Adminreg2026</t>
   </si>
   <si>
@@ -132,6 +129,12 @@
   </si>
   <si>
     <t>adminreg@gahar.gov.eg</t>
+  </si>
+  <si>
+    <t>Cob2026</t>
+  </si>
+  <si>
+    <t>cob@gahar.gov.eg</t>
   </si>
 </sst>
 </file>
@@ -517,7 +520,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,21 +636,24 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -662,8 +668,8 @@
     <hyperlink ref="A9" r:id="rId8" xr:uid="{73D30EF0-BC48-4FC8-ABCC-7D2A19B88EFD}"/>
     <hyperlink ref="B10" r:id="rId9" xr:uid="{7185E021-DC32-4262-AAD1-5392FD217ED9}"/>
     <hyperlink ref="A10" r:id="rId10" xr:uid="{1A81DEA8-180B-4D0D-BA6A-211263D7D853}"/>
-    <hyperlink ref="A11" r:id="rId11" xr:uid="{770DEFFB-A763-4F1B-AE55-A5D62D5DA2B4}"/>
-    <hyperlink ref="A12" r:id="rId12" xr:uid="{6B9C862C-41C9-4C4B-BB80-042916EB9F49}"/>
+    <hyperlink ref="A11" r:id="rId11" xr:uid="{6B9C862C-41C9-4C4B-BB80-042916EB9F49}"/>
+    <hyperlink ref="A12" r:id="rId12" xr:uid="{25BF7015-2F7D-4BA5-8EAF-7D76F9698771}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/المستخدمين.xlsx
+++ b/المستخدمين.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\تطبيقي\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93033DCA-199D-461C-A5EE-1B1ED80BC22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA57123-FEE4-4106-BE13-B00728D2E301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8C11EB78-F252-4332-9410-1458DD7567FE}"/>
   </bookViews>
@@ -83,12 +83,6 @@
     <t>اعتماد وتسجيل المنشآت</t>
   </si>
   <si>
-    <t>tec@gahar.gov.eg</t>
-  </si>
-  <si>
-    <t>Tec1234</t>
-  </si>
-  <si>
     <t>الدعم الفني للمنشآت الصحية</t>
   </si>
   <si>
@@ -135,6 +129,12 @@
   </si>
   <si>
     <t>cob@gahar.gov.eg</t>
+  </si>
+  <si>
+    <t>tech@gahar.gov.eg</t>
+  </si>
+  <si>
+    <t>Tec@2026</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,73 +587,73 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -670,6 +670,7 @@
     <hyperlink ref="A10" r:id="rId10" xr:uid="{1A81DEA8-180B-4D0D-BA6A-211263D7D853}"/>
     <hyperlink ref="A11" r:id="rId11" xr:uid="{6B9C862C-41C9-4C4B-BB80-042916EB9F49}"/>
     <hyperlink ref="A12" r:id="rId12" xr:uid="{25BF7015-2F7D-4BA5-8EAF-7D76F9698771}"/>
+    <hyperlink ref="B6" r:id="rId13" xr:uid="{E873C369-4C74-4389-82D5-F566C76C415E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/المستخدمين.xlsx
+++ b/المستخدمين.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\تطبيقي\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA57123-FEE4-4106-BE13-B00728D2E301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC44159-60E2-4BC9-B2B9-17F8DCF3C98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8C11EB78-F252-4332-9410-1458DD7567FE}"/>
   </bookViews>
@@ -134,7 +134,7 @@
     <t>tech@gahar.gov.eg</t>
   </si>
   <si>
-    <t>Tec@2026</t>
+    <t>Tech@2026</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/المستخدمين.xlsx
+++ b/المستخدمين.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\تطبيقي\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC44159-60E2-4BC9-B2B9-17F8DCF3C98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B419972-800D-4076-8CFC-9188AD130150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8C11EB78-F252-4332-9410-1458DD7567FE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>training@gahar.gov.eg</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>Tech@2026</t>
+  </si>
+  <si>
+    <t>medstaff@gahar.gov.eg</t>
+  </si>
+  <si>
+    <t>Mstaff@2026</t>
+  </si>
+  <si>
+    <t>أعضاء المهن الطبية</t>
   </si>
 </sst>
 </file>
@@ -517,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B05737-2DBB-47FB-ADE8-231989853B7E}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,6 +663,17 @@
       </c>
       <c r="C12" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -671,6 +691,8 @@
     <hyperlink ref="A11" r:id="rId11" xr:uid="{6B9C862C-41C9-4C4B-BB80-042916EB9F49}"/>
     <hyperlink ref="A12" r:id="rId12" xr:uid="{25BF7015-2F7D-4BA5-8EAF-7D76F9698771}"/>
     <hyperlink ref="B6" r:id="rId13" xr:uid="{E873C369-4C74-4389-82D5-F566C76C415E}"/>
+    <hyperlink ref="A13" r:id="rId14" xr:uid="{1E309800-E1D7-4E32-B3AB-1033D20D12E2}"/>
+    <hyperlink ref="B13" r:id="rId15" xr:uid="{B65A6043-234D-4401-B3F1-D04C2996AFF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/المستخدمين.xlsx
+++ b/المستخدمين.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\تطبيقي\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B419972-800D-4076-8CFC-9188AD130150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D22977-D5C0-4792-8504-EDA8442C2AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8C11EB78-F252-4332-9410-1458DD7567FE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>training@gahar.gov.eg</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>أعضاء المهن الطبية</t>
+  </si>
+  <si>
+    <t>شئون المراجعين</t>
+  </si>
+  <si>
+    <t>reviewers@gahar.gov.eg</t>
+  </si>
+  <si>
+    <t>RevGahar_2026</t>
   </si>
 </sst>
 </file>
@@ -526,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B05737-2DBB-47FB-ADE8-231989853B7E}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,6 +683,17 @@
       </c>
       <c r="C13" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -693,6 +713,7 @@
     <hyperlink ref="B6" r:id="rId13" xr:uid="{E873C369-4C74-4389-82D5-F566C76C415E}"/>
     <hyperlink ref="A13" r:id="rId14" xr:uid="{1E309800-E1D7-4E32-B3AB-1033D20D12E2}"/>
     <hyperlink ref="B13" r:id="rId15" xr:uid="{B65A6043-234D-4401-B3F1-D04C2996AFF7}"/>
+    <hyperlink ref="A14" r:id="rId16" xr:uid="{AF761C99-AC62-49B5-9FD5-10D8988BA526}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
